--- a/iselUssSyncV2/OutputWSL/20220517_1301_D60L474W90Q10U0.20H63.8G2_S_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1301_D60L474W90Q10U0.20H63.8G2_S_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>-106</v>
       </c>
       <c r="E2" s="0">
-        <v>64.691626984126955</v>
+        <v>65.749453071083479</v>
       </c>
       <c r="F2" s="0">
-        <v>64.718174603174617</v>
+        <v>65.773747725704254</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>-106</v>
       </c>
       <c r="E3" s="0">
-        <v>65.142222222222145</v>
+        <v>66.154373616644449</v>
       </c>
       <c r="F3" s="0">
-        <v>66.770873015872937</v>
+        <v>67.506530386390864</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>-106</v>
       </c>
       <c r="E4" s="0">
-        <v>63.913333333333306</v>
+        <v>63.281190476190446</v>
       </c>
       <c r="F4" s="0">
-        <v>68.396468253968266</v>
+        <v>66.877777777777794</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>-106</v>
       </c>
       <c r="E5" s="0">
-        <v>63.010198412698387</v>
+        <v>62.330875703535042</v>
       </c>
       <c r="F5" s="0">
-        <v>68.707658730158727</v>
+        <v>67.377419686334022</v>
       </c>
     </row>
     <row r="6">
@@ -202,10 +202,10 @@
         <v>-106</v>
       </c>
       <c r="E6" s="0">
-        <v>61.015378486055781</v>
+        <v>60.214307057484355</v>
       </c>
       <c r="F6" s="0">
-        <v>68.829043824701188</v>
+        <v>66.412139062796427</v>
       </c>
     </row>
     <row r="7">
@@ -222,9 +222,11 @@
         <v>-106</v>
       </c>
       <c r="E7" s="0">
-        <v>58.142151394422292</v>
-      </c>
-      <c r="F7" s="0"/>
+        <v>57.944572029342929</v>
+      </c>
+      <c r="F7" s="0">
+        <v>67.922654145323406</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -240,9 +242,11 @@
         <v>-106</v>
       </c>
       <c r="E8" s="0">
-        <v>51.975952380952393</v>
-      </c>
-      <c r="F8" s="0"/>
+        <v>51.775436507936519</v>
+      </c>
+      <c r="F8" s="0">
+        <v>67.868888888888819</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -258,10 +262,10 @@
         <v>-106</v>
       </c>
       <c r="E9" s="0">
-        <v>48.04796812749003</v>
+        <v>47.221976063997964</v>
       </c>
       <c r="F9" s="0">
-        <v>67.74163346613544</v>
+        <v>65.341633466135434</v>
       </c>
     </row>
     <row r="10">
@@ -277,9 +281,11 @@
       <c r="D10" s="0">
         <v>-106</v>
       </c>
-      <c r="E10" s="0"/>
+      <c r="E10" s="0">
+        <v>134.49223107569716</v>
+      </c>
       <c r="F10" s="0">
-        <v>22.388127490039842</v>
+        <v>19.691474103585662</v>
       </c>
     </row>
     <row r="11">
@@ -295,9 +301,11 @@
       <c r="D11" s="0">
         <v>-106</v>
       </c>
-      <c r="E11" s="0"/>
+      <c r="E11" s="0">
+        <v>63.546294820717137</v>
+      </c>
       <c r="F11" s="0">
-        <v>23.874900398406371</v>
+        <v>21.185498007968125</v>
       </c>
     </row>
     <row r="12">
@@ -313,9 +321,11 @@
       <c r="D12" s="0">
         <v>-106</v>
       </c>
-      <c r="E12" s="0"/>
+      <c r="E12" s="0">
+        <v>155.96673306772897</v>
+      </c>
       <c r="F12" s="0">
-        <v>24.873306772908368</v>
+        <v>22.219681274900399</v>
       </c>
     </row>
     <row r="13">
@@ -331,9 +341,11 @@
       <c r="D13" s="0">
         <v>-106</v>
       </c>
-      <c r="E13" s="0"/>
+      <c r="E13" s="0">
+        <v>189.15928571428555</v>
+      </c>
       <c r="F13" s="0">
-        <v>26.158333333333339</v>
+        <v>23.464444444444453</v>
       </c>
     </row>
     <row r="14">
@@ -349,9 +361,11 @@
       <c r="D14" s="0">
         <v>-106</v>
       </c>
-      <c r="E14" s="0"/>
+      <c r="E14" s="0">
+        <v>167.75219123505963</v>
+      </c>
       <c r="F14" s="0">
-        <v>27.100876494023911</v>
+        <v>24.433466135458172</v>
       </c>
     </row>
     <row r="15">
@@ -367,9 +381,11 @@
       <c r="D15" s="0">
         <v>-106</v>
       </c>
-      <c r="E15" s="0"/>
+      <c r="E15" s="0">
+        <v>155.01436507936498</v>
+      </c>
       <c r="F15" s="0">
-        <v>27.571388888888887</v>
+        <v>24.910039682539683</v>
       </c>
     </row>
     <row r="16">
@@ -385,9 +401,11 @@
       <c r="D16" s="0">
         <v>-106</v>
       </c>
-      <c r="E16" s="0"/>
+      <c r="E16" s="0">
+        <v>56.124433535698465</v>
+      </c>
       <c r="F16" s="0">
-        <v>28.347330677290845</v>
+        <v>26.333164010624181</v>
       </c>
     </row>
     <row r="17">
@@ -404,10 +422,10 @@
         <v>-106</v>
       </c>
       <c r="E17" s="0">
-        <v>32.679642857142852</v>
+        <v>32.334761904761898</v>
       </c>
       <c r="F17" s="0">
-        <v>28.492976190476181</v>
+        <v>25.927936507936497</v>
       </c>
     </row>
     <row r="18">
@@ -424,10 +442,10 @@
         <v>-106</v>
       </c>
       <c r="E18" s="0">
-        <v>33.23912350597606</v>
+        <v>32.181385410737967</v>
       </c>
       <c r="F18" s="0">
-        <v>28.635338645418326</v>
+        <v>25.954187851767532</v>
       </c>
     </row>
     <row r="19">
@@ -444,10 +462,10 @@
         <v>-106</v>
       </c>
       <c r="E19" s="0">
-        <v>33.003904382470125</v>
+        <v>31.963745652311395</v>
       </c>
       <c r="F19" s="0">
-        <v>28.663027888446219</v>
+        <v>26.005765983684313</v>
       </c>
     </row>
     <row r="20">
@@ -464,10 +482,10 @@
         <v>-106</v>
       </c>
       <c r="E20" s="0">
-        <v>33.466587301587296</v>
+        <v>32.379523809523803</v>
       </c>
       <c r="F20" s="0">
-        <v>28.808174603174596</v>
+        <v>26.102896825396819</v>
       </c>
     </row>
     <row r="21">
@@ -484,10 +502,10 @@
         <v>-106</v>
       </c>
       <c r="E21" s="0">
-        <v>33.009681274900409</v>
+        <v>31.962509960159373</v>
       </c>
       <c r="F21" s="0">
-        <v>28.931274900398403</v>
+        <v>26.289681274900396</v>
       </c>
     </row>
     <row r="22">
@@ -504,10 +522,10 @@
         <v>-106</v>
       </c>
       <c r="E22" s="0">
-        <v>31.748293650793656</v>
+        <v>30.270912698412705</v>
       </c>
       <c r="F22" s="0">
-        <v>28.808650793650781</v>
+        <v>26.52722222222221</v>
       </c>
     </row>
     <row r="23">
@@ -524,10 +542,10 @@
         <v>-106</v>
       </c>
       <c r="E23" s="0">
-        <v>29.738492063492075</v>
+        <v>28.22144027066339</v>
       </c>
       <c r="F23" s="0">
-        <v>29.093492063492064</v>
+        <v>26.394009991778915</v>
       </c>
     </row>
     <row r="24">
@@ -544,10 +562,10 @@
         <v>-106</v>
       </c>
       <c r="E24" s="0">
-        <v>25.166494023904381</v>
+        <v>23.681155378486054</v>
       </c>
       <c r="F24" s="0">
-        <v>28.977410358565738</v>
+        <v>25.856613545816735</v>
       </c>
     </row>
     <row r="25">
@@ -564,10 +582,10 @@
         <v>-106</v>
       </c>
       <c r="E25" s="0">
-        <v>23.530396825396831</v>
+        <v>22.695674603174609</v>
       </c>
       <c r="F25" s="0">
-        <v>29.093611111111112</v>
+        <v>26.775793650793652</v>
       </c>
     </row>
     <row r="26">
@@ -584,10 +602,10 @@
         <v>-106</v>
       </c>
       <c r="E26" s="0">
-        <v>24.14166666666668</v>
+        <v>23.513459495351938</v>
       </c>
       <c r="F26" s="0">
-        <v>28.927023809523806</v>
+        <v>27.241406279643329</v>
       </c>
     </row>
     <row r="27">
@@ -604,10 +622,10 @@
         <v>-106</v>
       </c>
       <c r="E27" s="0">
-        <v>24.490952380952379</v>
+        <v>23.812346803263136</v>
       </c>
       <c r="F27" s="0">
-        <v>28.712857142857139</v>
+        <v>27.221143995446781</v>
       </c>
     </row>
     <row r="28">
@@ -624,10 +642,10 @@
         <v>-106</v>
       </c>
       <c r="E28" s="0">
-        <v>22.550912698412699</v>
+        <v>22.395674603174605</v>
       </c>
       <c r="F28" s="0">
-        <v>28.04452380952381</v>
+        <v>26.638730158730159</v>
       </c>
     </row>
     <row r="29">
@@ -644,10 +662,10 @@
         <v>-106</v>
       </c>
       <c r="E29" s="0">
-        <v>22.433928571428567</v>
+        <v>21.774365079365076</v>
       </c>
       <c r="F29" s="0">
-        <v>27.947777777777773</v>
+        <v>26.484007936507933</v>
       </c>
     </row>
     <row r="30">
@@ -664,10 +682,10 @@
         <v>-106</v>
       </c>
       <c r="E30" s="0">
-        <v>21.396626984126978</v>
+        <v>21.209722222222215</v>
       </c>
       <c r="F30" s="0">
-        <v>27.111230158730155</v>
+        <v>26.5181746031746</v>
       </c>
     </row>
   </sheetData>
